--- a/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Addchinhsachcongty_ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Addchinhsachcongty_ver1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27778F1-6BCE-4A79-9D81-288B7C13D154}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED3C9CC-91C3-495E-BA7B-18E85ACB8C55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="196">
   <si>
     <t>Author</t>
   </si>
@@ -529,9 +529,6 @@
     <t>TR-BDS-UCSCT-15</t>
   </si>
   <si>
-    <t>TR-BDS-UCSCT-17</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kiểm tra Hiển thị nút quay lại trong giao diện thêm chính sách </t>
   </si>
   <si>
@@ -661,7 +658,13 @@
     <t>Hiển thị giao diện thêm chính sách và nút " hủy "</t>
   </si>
   <si>
-    <t>fail</t>
+    <t>28/4/2020</t>
+  </si>
+  <si>
+    <t>TC-BDS-UCSCT-17</t>
+  </si>
+  <si>
+    <t>TR-BDS-UCSCT-18</t>
   </si>
 </sst>
 </file>
@@ -1453,6 +1456,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1558,54 +1573,54 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1615,27 +1630,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1643,12 +1652,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1974,8 +1977,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1990,31 +1993,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -2062,7 +2065,9 @@
       <c r="B9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>193</v>
+      </c>
       <c r="D9" s="10" t="s">
         <v>54</v>
       </c>
@@ -2074,7 +2079,9 @@
       <c r="B10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="12">
+        <v>43953</v>
+      </c>
       <c r="D10" s="10" t="s">
         <v>54</v>
       </c>
@@ -2089,21 +2096,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -2112,40 +2119,40 @@
       <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="58"/>
+      <c r="E15" s="62"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="64"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2186,8 +2193,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2204,80 +2211,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="72"/>
+      <c r="D2" s="76"/>
       <c r="E2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="71" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74"/>
+      <c r="F2" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="77"/>
+      <c r="H2" s="78"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="77" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="78"/>
+      <c r="D3" s="82"/>
       <c r="E3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63">
+      <c r="B4" s="66"/>
+      <c r="C4" s="67">
         <v>43840</v>
       </c>
-      <c r="D4" s="64"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="70"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
     </row>
     <row r="8" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
@@ -2310,10 +2317,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C9" s="34"/>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="46" t="s">
         <v>74</v>
       </c>
       <c r="E9" s="32" t="s">
@@ -2330,10 +2337,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="34"/>
-      <c r="D10" s="105" t="s">
+      <c r="D10" s="46" t="s">
         <v>68</v>
       </c>
       <c r="E10" s="32" t="s">
@@ -2350,10 +2357,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" s="34"/>
-      <c r="D11" s="105" t="s">
+      <c r="D11" s="46" t="s">
         <v>80</v>
       </c>
       <c r="E11" s="32" t="s">
@@ -2370,11 +2377,11 @@
         <v>4</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C12" s="34"/>
-      <c r="D12" s="105" t="s">
-        <v>177</v>
+      <c r="D12" s="46" t="s">
+        <v>176</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>36</v>
@@ -2390,11 +2397,11 @@
         <v>5</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>37</v>
@@ -2410,11 +2417,11 @@
         <v>6</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="34"/>
-      <c r="D14" s="105" t="s">
-        <v>179</v>
+      <c r="D14" s="46" t="s">
+        <v>178</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>37</v>
@@ -2428,11 +2435,11 @@
     <row r="15" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27"/>
       <c r="B15" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>36</v>
@@ -2448,13 +2455,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="105" t="s">
-        <v>181</v>
+      <c r="D16" s="46" t="s">
+        <v>180</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>35</v>
@@ -2470,13 +2477,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>35</v>
@@ -2492,13 +2499,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>35</v>
@@ -2514,12 +2521,12 @@
         <v>10</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="46" t="s">
         <v>84</v>
       </c>
       <c r="E19" s="32" t="s">
@@ -2536,13 +2543,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="105" t="s">
-        <v>182</v>
+      <c r="D20" s="46" t="s">
+        <v>181</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>35</v>
@@ -2558,7 +2565,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" s="34" t="s">
         <v>45</v>
@@ -2580,13 +2587,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C22" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>35</v>
@@ -2601,13 +2608,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C23" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>35</v>
@@ -2622,13 +2629,13 @@
         <v>14</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C24" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="106" t="s">
-        <v>151</v>
+      <c r="D24" s="47" t="s">
+        <v>150</v>
       </c>
       <c r="E24" s="32" t="s">
         <v>35</v>
@@ -2687,9 +2694,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J138"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J135" sqref="J135:J138"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D135" sqref="D135:D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2707,17 +2714,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
@@ -2756,32 +2763,32 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
     </row>
     <row r="5" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="89">
+      <c r="A5" s="85">
         <v>1</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="92" t="s">
         <v>75</v>
       </c>
       <c r="F5" s="44">
@@ -2794,16 +2801,16 @@
       <c r="I5" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="107" t="s">
-        <v>185</v>
+      <c r="J5" s="109" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="90"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="88"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="93"/>
       <c r="F6" s="44">
         <v>2</v>
       </c>
@@ -2814,14 +2821,14 @@
       <c r="I6" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="108"/>
+      <c r="J6" s="110"/>
     </row>
     <row r="7" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="90"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="88"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="93"/>
       <c r="F7" s="44">
         <v>3</v>
       </c>
@@ -2832,14 +2839,14 @@
       <c r="I7" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="108"/>
+      <c r="J7" s="110"/>
     </row>
     <row r="8" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="90"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="88"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="93"/>
       <c r="F8" s="44">
         <v>4</v>
       </c>
@@ -2850,14 +2857,14 @@
       <c r="I8" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="J8" s="108"/>
+      <c r="J8" s="110"/>
     </row>
     <row r="9" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="90"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="88"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="93"/>
       <c r="F9" s="44">
         <v>5</v>
       </c>
@@ -2868,14 +2875,14 @@
         <v>91</v>
       </c>
       <c r="I9" s="40"/>
-      <c r="J9" s="108"/>
+      <c r="J9" s="110"/>
     </row>
     <row r="10" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="90"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="88"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="93"/>
       <c r="F10" s="44">
         <v>6</v>
       </c>
@@ -2886,14 +2893,14 @@
       <c r="I10" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J10" s="108"/>
+      <c r="J10" s="110"/>
     </row>
     <row r="11" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="90"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="88"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="93"/>
       <c r="F11" s="44">
         <v>7</v>
       </c>
@@ -2906,14 +2913,14 @@
       <c r="I11" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="J11" s="108"/>
+      <c r="J11" s="110"/>
     </row>
     <row r="12" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="90"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="88"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="93"/>
       <c r="F12" s="44">
         <v>8</v>
       </c>
@@ -2924,14 +2931,14 @@
       <c r="I12" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="J12" s="108"/>
+      <c r="J12" s="110"/>
     </row>
     <row r="13" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="90"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="88"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="93"/>
       <c r="F13" s="44">
         <v>9</v>
       </c>
@@ -2942,22 +2949,22 @@
       <c r="I13" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="J13" s="109"/>
+      <c r="J13" s="111"/>
     </row>
     <row r="14" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="89">
+      <c r="A14" s="85">
         <v>1</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="85" t="s">
+      <c r="D14" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="87" t="s">
+      <c r="E14" s="92" t="s">
         <v>75</v>
       </c>
       <c r="F14" s="44">
@@ -2970,16 +2977,16 @@
       <c r="I14" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="107" t="s">
-        <v>185</v>
+      <c r="J14" s="109" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="90"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="88"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="93"/>
       <c r="F15" s="44">
         <v>2</v>
       </c>
@@ -2990,14 +2997,14 @@
       <c r="I15" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="108"/>
+      <c r="J15" s="110"/>
     </row>
     <row r="16" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="90"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="88"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="93"/>
       <c r="F16" s="44">
         <v>3</v>
       </c>
@@ -3008,14 +3015,14 @@
       <c r="I16" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="J16" s="108"/>
+      <c r="J16" s="110"/>
     </row>
     <row r="17" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="90"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="88"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="93"/>
       <c r="F17" s="44">
         <v>4</v>
       </c>
@@ -3026,14 +3033,14 @@
       <c r="I17" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="J17" s="108"/>
+      <c r="J17" s="110"/>
     </row>
     <row r="18" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="90"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="88"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="93"/>
       <c r="F18" s="44">
         <v>5</v>
       </c>
@@ -3044,14 +3051,14 @@
         <v>91</v>
       </c>
       <c r="I18" s="40"/>
-      <c r="J18" s="108"/>
+      <c r="J18" s="110"/>
     </row>
     <row r="19" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="90"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="88"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="93"/>
       <c r="F19" s="44">
         <v>6</v>
       </c>
@@ -3062,14 +3069,14 @@
       <c r="I19" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J19" s="108"/>
+      <c r="J19" s="110"/>
     </row>
     <row r="20" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="90"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="88"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="93"/>
       <c r="F20" s="44">
         <v>7</v>
       </c>
@@ -3082,14 +3089,14 @@
       <c r="I20" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="J20" s="108"/>
+      <c r="J20" s="110"/>
     </row>
     <row r="21" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="90"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="88"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="93"/>
       <c r="F21" s="44">
         <v>8</v>
       </c>
@@ -3102,14 +3109,14 @@
       <c r="I21" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="J21" s="108"/>
+      <c r="J21" s="110"/>
     </row>
     <row r="22" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="90"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="88"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="93"/>
       <c r="F22" s="44">
         <v>9</v>
       </c>
@@ -3120,22 +3127,22 @@
       <c r="I22" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="J22" s="109"/>
+      <c r="J22" s="111"/>
     </row>
     <row r="23" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="89">
+      <c r="A23" s="85">
         <v>1</v>
       </c>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="85" t="s">
+      <c r="D23" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="87" t="s">
+      <c r="E23" s="92" t="s">
         <v>75</v>
       </c>
       <c r="F23" s="44">
@@ -3148,16 +3155,16 @@
       <c r="I23" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J23" s="107" t="s">
-        <v>185</v>
+      <c r="J23" s="109" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="90"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="88"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="93"/>
       <c r="F24" s="44">
         <v>2</v>
       </c>
@@ -3168,14 +3175,14 @@
       <c r="I24" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J24" s="108"/>
+      <c r="J24" s="110"/>
     </row>
     <row r="25" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="90"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="88"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="93"/>
       <c r="F25" s="44">
         <v>3</v>
       </c>
@@ -3186,14 +3193,14 @@
       <c r="I25" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="J25" s="108"/>
+      <c r="J25" s="110"/>
     </row>
     <row r="26" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="90"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="88"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="93"/>
       <c r="F26" s="44">
         <v>4</v>
       </c>
@@ -3204,14 +3211,14 @@
       <c r="I26" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="J26" s="108"/>
+      <c r="J26" s="110"/>
     </row>
     <row r="27" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="90"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="88"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="93"/>
       <c r="F27" s="44">
         <v>5</v>
       </c>
@@ -3222,14 +3229,14 @@
         <v>91</v>
       </c>
       <c r="I27" s="40"/>
-      <c r="J27" s="108"/>
+      <c r="J27" s="110"/>
     </row>
     <row r="28" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="88"/>
+      <c r="A28" s="86"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="93"/>
       <c r="F28" s="44">
         <v>6</v>
       </c>
@@ -3240,14 +3247,14 @@
       <c r="I28" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J28" s="108"/>
+      <c r="J28" s="110"/>
     </row>
     <row r="29" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="90"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="88"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="93"/>
       <c r="F29" s="44">
         <v>7</v>
       </c>
@@ -3260,14 +3267,14 @@
       <c r="I29" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="J29" s="108"/>
+      <c r="J29" s="110"/>
     </row>
     <row r="30" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="90"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="88"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="93"/>
       <c r="F30" s="44">
         <v>8</v>
       </c>
@@ -3280,14 +3287,14 @@
       <c r="I30" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="J30" s="108"/>
+      <c r="J30" s="110"/>
     </row>
     <row r="31" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="90"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="88"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="93"/>
       <c r="F31" s="44">
         <v>9</v>
       </c>
@@ -3298,22 +3305,22 @@
       <c r="I31" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="J31" s="109"/>
+      <c r="J31" s="111"/>
     </row>
     <row r="32" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="89">
+      <c r="A32" s="85">
         <v>1</v>
       </c>
-      <c r="B32" s="101" t="s">
+      <c r="B32" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="83" t="s">
+      <c r="C32" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="85" t="s">
+      <c r="D32" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="87" t="s">
+      <c r="E32" s="92" t="s">
         <v>75</v>
       </c>
       <c r="F32" s="44">
@@ -3326,16 +3333,16 @@
       <c r="I32" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J32" s="107" t="s">
-        <v>185</v>
+      <c r="J32" s="109" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="90"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="88"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="93"/>
       <c r="F33" s="44">
         <v>2</v>
       </c>
@@ -3346,14 +3353,14 @@
       <c r="I33" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J33" s="108"/>
+      <c r="J33" s="110"/>
     </row>
     <row r="34" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="90"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="88"/>
+      <c r="A34" s="86"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="93"/>
       <c r="F34" s="44">
         <v>3</v>
       </c>
@@ -3364,14 +3371,14 @@
       <c r="I34" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="J34" s="108"/>
+      <c r="J34" s="110"/>
     </row>
     <row r="35" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="90"/>
-      <c r="B35" s="102"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="88"/>
+      <c r="A35" s="86"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="93"/>
       <c r="F35" s="44">
         <v>4</v>
       </c>
@@ -3382,14 +3389,14 @@
       <c r="I35" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="J35" s="108"/>
+      <c r="J35" s="110"/>
     </row>
     <row r="36" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="90"/>
-      <c r="B36" s="102"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="88"/>
+      <c r="A36" s="86"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="93"/>
       <c r="F36" s="44">
         <v>5</v>
       </c>
@@ -3400,14 +3407,14 @@
         <v>105</v>
       </c>
       <c r="I36" s="40"/>
-      <c r="J36" s="108"/>
+      <c r="J36" s="110"/>
     </row>
     <row r="37" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="90"/>
-      <c r="B37" s="102"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="88"/>
+      <c r="A37" s="86"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="93"/>
       <c r="F37" s="44">
         <v>6</v>
       </c>
@@ -3418,14 +3425,14 @@
       <c r="I37" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J37" s="108"/>
+      <c r="J37" s="110"/>
     </row>
     <row r="38" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="90"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="88"/>
+      <c r="A38" s="86"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="93"/>
       <c r="F38" s="44">
         <v>7</v>
       </c>
@@ -3438,14 +3445,14 @@
       <c r="I38" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="J38" s="108"/>
+      <c r="J38" s="110"/>
     </row>
     <row r="39" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="90"/>
-      <c r="B39" s="102"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="88"/>
+      <c r="A39" s="86"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="93"/>
       <c r="F39" s="44">
         <v>8</v>
       </c>
@@ -3458,14 +3465,14 @@
       <c r="I39" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="J39" s="108"/>
+      <c r="J39" s="110"/>
     </row>
     <row r="40" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="90"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="88"/>
+      <c r="A40" s="86"/>
+      <c r="B40" s="105"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="93"/>
       <c r="F40" s="44">
         <v>9</v>
       </c>
@@ -3476,20 +3483,20 @@
       <c r="I40" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="J40" s="109"/>
+      <c r="J40" s="111"/>
     </row>
     <row r="41" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="89">
+      <c r="A41" s="85">
         <v>1</v>
       </c>
-      <c r="B41" s="102"/>
-      <c r="C41" s="83" t="s">
+      <c r="B41" s="105"/>
+      <c r="C41" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="85" t="s">
+      <c r="D41" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="87" t="s">
+      <c r="E41" s="92" t="s">
         <v>75</v>
       </c>
       <c r="F41" s="44">
@@ -3502,16 +3509,16 @@
       <c r="I41" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J41" s="107" t="s">
-        <v>185</v>
+      <c r="J41" s="109" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="90"/>
-      <c r="B42" s="102"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="88"/>
+      <c r="A42" s="86"/>
+      <c r="B42" s="105"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="93"/>
       <c r="F42" s="44">
         <v>2</v>
       </c>
@@ -3522,14 +3529,14 @@
       <c r="I42" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J42" s="108"/>
+      <c r="J42" s="110"/>
     </row>
     <row r="43" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="90"/>
-      <c r="B43" s="102"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="88"/>
+      <c r="A43" s="86"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="93"/>
       <c r="F43" s="44">
         <v>3</v>
       </c>
@@ -3540,14 +3547,14 @@
       <c r="I43" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="J43" s="108"/>
+      <c r="J43" s="110"/>
     </row>
     <row r="44" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="90"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="88"/>
+      <c r="A44" s="86"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="93"/>
       <c r="F44" s="44">
         <v>4</v>
       </c>
@@ -3558,14 +3565,14 @@
       <c r="I44" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="J44" s="108"/>
+      <c r="J44" s="110"/>
     </row>
     <row r="45" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="90"/>
-      <c r="B45" s="102"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="88"/>
+      <c r="A45" s="86"/>
+      <c r="B45" s="105"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="93"/>
       <c r="F45" s="44">
         <v>5</v>
       </c>
@@ -3576,14 +3583,14 @@
         <v>123</v>
       </c>
       <c r="I45" s="40"/>
-      <c r="J45" s="108"/>
+      <c r="J45" s="110"/>
     </row>
     <row r="46" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="90"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="88"/>
+      <c r="A46" s="86"/>
+      <c r="B46" s="105"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="93"/>
       <c r="F46" s="44">
         <v>6</v>
       </c>
@@ -3594,14 +3601,14 @@
       <c r="I46" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J46" s="108"/>
+      <c r="J46" s="110"/>
     </row>
     <row r="47" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="90"/>
-      <c r="B47" s="102"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="88"/>
+      <c r="A47" s="86"/>
+      <c r="B47" s="105"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="93"/>
       <c r="F47" s="44">
         <v>7</v>
       </c>
@@ -3614,14 +3621,14 @@
       <c r="I47" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="J47" s="108"/>
+      <c r="J47" s="110"/>
     </row>
     <row r="48" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="90"/>
-      <c r="B48" s="102"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="86"/>
-      <c r="E48" s="88"/>
+      <c r="A48" s="86"/>
+      <c r="B48" s="105"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="93"/>
       <c r="F48" s="44">
         <v>8</v>
       </c>
@@ -3634,14 +3641,14 @@
       <c r="I48" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="J48" s="108"/>
+      <c r="J48" s="110"/>
     </row>
     <row r="49" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="90"/>
-      <c r="B49" s="103"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="88"/>
+      <c r="A49" s="86"/>
+      <c r="B49" s="106"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="93"/>
       <c r="F49" s="44">
         <v>9</v>
       </c>
@@ -3652,22 +3659,22 @@
       <c r="I49" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="J49" s="109"/>
+      <c r="J49" s="111"/>
     </row>
     <row r="50" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="89">
+      <c r="A50" s="85">
         <v>1</v>
       </c>
-      <c r="B50" s="83" t="s">
+      <c r="B50" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="83" t="s">
+      <c r="C50" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="85" t="s">
+      <c r="D50" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="E50" s="87" t="s">
+      <c r="E50" s="92" t="s">
         <v>75</v>
       </c>
       <c r="F50" s="44">
@@ -3680,16 +3687,16 @@
       <c r="I50" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J50" s="107" t="s">
-        <v>185</v>
+      <c r="J50" s="109" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="90"/>
-      <c r="B51" s="84"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="88"/>
+      <c r="A51" s="86"/>
+      <c r="B51" s="88"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="93"/>
       <c r="F51" s="44">
         <v>2</v>
       </c>
@@ -3700,14 +3707,14 @@
       <c r="I51" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J51" s="108"/>
+      <c r="J51" s="110"/>
     </row>
     <row r="52" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="90"/>
-      <c r="B52" s="84"/>
-      <c r="C52" s="84"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="88"/>
+      <c r="A52" s="86"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="91"/>
+      <c r="E52" s="93"/>
       <c r="F52" s="44">
         <v>3</v>
       </c>
@@ -3718,14 +3725,14 @@
       <c r="I52" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="J52" s="108"/>
+      <c r="J52" s="110"/>
     </row>
     <row r="53" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="90"/>
-      <c r="B53" s="84"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="88"/>
+      <c r="A53" s="86"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="93"/>
       <c r="F53" s="44">
         <v>4</v>
       </c>
@@ -3736,14 +3743,14 @@
       <c r="I53" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="J53" s="108"/>
+      <c r="J53" s="110"/>
     </row>
     <row r="54" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="90"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="88"/>
+      <c r="A54" s="86"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="93"/>
       <c r="F54" s="44">
         <v>5</v>
       </c>
@@ -3754,14 +3761,14 @@
         <v>123</v>
       </c>
       <c r="I54" s="40"/>
-      <c r="J54" s="108"/>
+      <c r="J54" s="110"/>
     </row>
     <row r="55" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="90"/>
-      <c r="B55" s="84"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="88"/>
+      <c r="A55" s="86"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="93"/>
       <c r="F55" s="44">
         <v>6</v>
       </c>
@@ -3772,14 +3779,14 @@
       <c r="I55" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J55" s="108"/>
+      <c r="J55" s="110"/>
     </row>
     <row r="56" spans="1:10" s="43" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="90"/>
-      <c r="B56" s="84"/>
-      <c r="C56" s="84"/>
-      <c r="D56" s="86"/>
-      <c r="E56" s="88"/>
+      <c r="A56" s="86"/>
+      <c r="B56" s="88"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="91"/>
+      <c r="E56" s="93"/>
       <c r="F56" s="44">
         <v>7</v>
       </c>
@@ -3792,14 +3799,14 @@
       <c r="I56" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="J56" s="108"/>
+      <c r="J56" s="110"/>
     </row>
     <row r="57" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="90"/>
-      <c r="B57" s="84"/>
-      <c r="C57" s="84"/>
-      <c r="D57" s="86"/>
-      <c r="E57" s="88"/>
+      <c r="A57" s="86"/>
+      <c r="B57" s="88"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="91"/>
+      <c r="E57" s="93"/>
       <c r="F57" s="44">
         <v>8</v>
       </c>
@@ -3812,14 +3819,14 @@
       <c r="I57" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="J57" s="108"/>
+      <c r="J57" s="110"/>
     </row>
     <row r="58" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="90"/>
-      <c r="B58" s="92"/>
-      <c r="C58" s="84"/>
-      <c r="D58" s="86"/>
-      <c r="E58" s="88"/>
+      <c r="A58" s="86"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="91"/>
+      <c r="E58" s="93"/>
       <c r="F58" s="44">
         <v>9</v>
       </c>
@@ -3830,22 +3837,22 @@
       <c r="I58" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="J58" s="109"/>
+      <c r="J58" s="111"/>
     </row>
     <row r="59" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="89">
+      <c r="A59" s="85">
         <v>1</v>
       </c>
-      <c r="B59" s="83" t="s">
+      <c r="B59" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="83" t="s">
+      <c r="C59" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="D59" s="85" t="s">
+      <c r="D59" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="E59" s="87" t="s">
+      <c r="E59" s="92" t="s">
         <v>75</v>
       </c>
       <c r="F59" s="44">
@@ -3858,16 +3865,16 @@
       <c r="I59" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J59" s="107" t="s">
-        <v>185</v>
+      <c r="J59" s="109" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="90"/>
-      <c r="B60" s="84"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="86"/>
-      <c r="E60" s="88"/>
+      <c r="A60" s="86"/>
+      <c r="B60" s="88"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="91"/>
+      <c r="E60" s="93"/>
       <c r="F60" s="44">
         <v>2</v>
       </c>
@@ -3878,14 +3885,14 @@
       <c r="I60" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J60" s="108"/>
+      <c r="J60" s="110"/>
     </row>
     <row r="61" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="90"/>
-      <c r="B61" s="84"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="86"/>
-      <c r="E61" s="88"/>
+      <c r="A61" s="86"/>
+      <c r="B61" s="88"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="91"/>
+      <c r="E61" s="93"/>
       <c r="F61" s="44">
         <v>3</v>
       </c>
@@ -3896,14 +3903,14 @@
       <c r="I61" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="J61" s="108"/>
+      <c r="J61" s="110"/>
     </row>
     <row r="62" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="90"/>
-      <c r="B62" s="84"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="88"/>
+      <c r="A62" s="86"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="91"/>
+      <c r="E62" s="93"/>
       <c r="F62" s="44">
         <v>4</v>
       </c>
@@ -3914,14 +3921,14 @@
       <c r="I62" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="J62" s="108"/>
+      <c r="J62" s="110"/>
     </row>
     <row r="63" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="90"/>
-      <c r="B63" s="84"/>
-      <c r="C63" s="84"/>
-      <c r="D63" s="86"/>
-      <c r="E63" s="88"/>
+      <c r="A63" s="86"/>
+      <c r="B63" s="88"/>
+      <c r="C63" s="88"/>
+      <c r="D63" s="91"/>
+      <c r="E63" s="93"/>
       <c r="F63" s="44">
         <v>5</v>
       </c>
@@ -3932,14 +3939,14 @@
         <v>118</v>
       </c>
       <c r="I63" s="40"/>
-      <c r="J63" s="108"/>
+      <c r="J63" s="110"/>
     </row>
     <row r="64" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="90"/>
-      <c r="B64" s="84"/>
-      <c r="C64" s="84"/>
-      <c r="D64" s="86"/>
-      <c r="E64" s="88"/>
+      <c r="A64" s="86"/>
+      <c r="B64" s="88"/>
+      <c r="C64" s="88"/>
+      <c r="D64" s="91"/>
+      <c r="E64" s="93"/>
       <c r="F64" s="44">
         <v>6</v>
       </c>
@@ -3950,14 +3957,14 @@
       <c r="I64" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J64" s="108"/>
+      <c r="J64" s="110"/>
     </row>
     <row r="65" spans="1:10" s="43" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="90"/>
-      <c r="B65" s="84"/>
-      <c r="C65" s="84"/>
-      <c r="D65" s="86"/>
-      <c r="E65" s="88"/>
+      <c r="A65" s="86"/>
+      <c r="B65" s="88"/>
+      <c r="C65" s="88"/>
+      <c r="D65" s="91"/>
+      <c r="E65" s="93"/>
       <c r="F65" s="44">
         <v>7</v>
       </c>
@@ -3970,14 +3977,14 @@
       <c r="I65" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="J65" s="108"/>
+      <c r="J65" s="110"/>
     </row>
     <row r="66" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="90"/>
-      <c r="B66" s="84"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="86"/>
-      <c r="E66" s="88"/>
+      <c r="A66" s="86"/>
+      <c r="B66" s="88"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="91"/>
+      <c r="E66" s="93"/>
       <c r="F66" s="44">
         <v>8</v>
       </c>
@@ -3990,14 +3997,14 @@
       <c r="I66" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="J66" s="108"/>
+      <c r="J66" s="110"/>
     </row>
     <row r="67" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="90"/>
-      <c r="B67" s="92"/>
-      <c r="C67" s="84"/>
-      <c r="D67" s="86"/>
-      <c r="E67" s="88"/>
+      <c r="A67" s="86"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="88"/>
+      <c r="D67" s="91"/>
+      <c r="E67" s="93"/>
       <c r="F67" s="44">
         <v>9</v>
       </c>
@@ -4008,22 +4015,22 @@
       <c r="I67" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="J67" s="109"/>
+      <c r="J67" s="111"/>
     </row>
     <row r="68" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="89">
+      <c r="A68" s="85">
         <v>1</v>
       </c>
-      <c r="B68" s="81" t="s">
+      <c r="B68" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="83" t="s">
+      <c r="C68" s="87" t="s">
+        <v>151</v>
+      </c>
+      <c r="D68" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="D68" s="85" t="s">
-        <v>153</v>
-      </c>
-      <c r="E68" s="87" t="s">
+      <c r="E68" s="92" t="s">
         <v>75</v>
       </c>
       <c r="F68" s="44">
@@ -4036,14 +4043,16 @@
       <c r="I68" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J68" s="107"/>
+      <c r="J68" s="109" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="69" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="90"/>
-      <c r="B69" s="82"/>
-      <c r="C69" s="84"/>
-      <c r="D69" s="86"/>
-      <c r="E69" s="88"/>
+      <c r="A69" s="86"/>
+      <c r="B69" s="96"/>
+      <c r="C69" s="88"/>
+      <c r="D69" s="91"/>
+      <c r="E69" s="93"/>
       <c r="F69" s="44">
         <v>2</v>
       </c>
@@ -4054,14 +4063,14 @@
       <c r="I69" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J69" s="108"/>
+      <c r="J69" s="110"/>
     </row>
     <row r="70" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="90"/>
-      <c r="B70" s="82"/>
-      <c r="C70" s="84"/>
-      <c r="D70" s="86"/>
-      <c r="E70" s="88"/>
+      <c r="A70" s="86"/>
+      <c r="B70" s="96"/>
+      <c r="C70" s="88"/>
+      <c r="D70" s="91"/>
+      <c r="E70" s="93"/>
       <c r="F70" s="44">
         <v>3</v>
       </c>
@@ -4072,14 +4081,14 @@
       <c r="I70" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="J70" s="108"/>
+      <c r="J70" s="110"/>
     </row>
     <row r="71" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="90"/>
-      <c r="B71" s="82"/>
-      <c r="C71" s="84"/>
-      <c r="D71" s="86"/>
-      <c r="E71" s="88"/>
+      <c r="A71" s="86"/>
+      <c r="B71" s="96"/>
+      <c r="C71" s="88"/>
+      <c r="D71" s="91"/>
+      <c r="E71" s="93"/>
       <c r="F71" s="44">
         <v>4</v>
       </c>
@@ -4090,14 +4099,14 @@
       <c r="I71" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="J71" s="108"/>
+      <c r="J71" s="110"/>
     </row>
     <row r="72" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="90"/>
-      <c r="B72" s="82"/>
-      <c r="C72" s="84"/>
-      <c r="D72" s="86"/>
-      <c r="E72" s="88"/>
+      <c r="A72" s="86"/>
+      <c r="B72" s="96"/>
+      <c r="C72" s="88"/>
+      <c r="D72" s="91"/>
+      <c r="E72" s="93"/>
       <c r="F72" s="44">
         <v>5</v>
       </c>
@@ -4108,14 +4117,14 @@
         <v>91</v>
       </c>
       <c r="I72" s="40"/>
-      <c r="J72" s="108"/>
+      <c r="J72" s="110"/>
     </row>
     <row r="73" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="90"/>
-      <c r="B73" s="82"/>
-      <c r="C73" s="84"/>
-      <c r="D73" s="86"/>
-      <c r="E73" s="88"/>
+      <c r="A73" s="86"/>
+      <c r="B73" s="96"/>
+      <c r="C73" s="88"/>
+      <c r="D73" s="91"/>
+      <c r="E73" s="93"/>
       <c r="F73" s="44">
         <v>6</v>
       </c>
@@ -4126,14 +4135,14 @@
       <c r="I73" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J73" s="108"/>
+      <c r="J73" s="110"/>
     </row>
     <row r="74" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="90"/>
-      <c r="B74" s="82"/>
-      <c r="C74" s="84"/>
-      <c r="D74" s="86"/>
-      <c r="E74" s="88"/>
+      <c r="A74" s="86"/>
+      <c r="B74" s="96"/>
+      <c r="C74" s="88"/>
+      <c r="D74" s="91"/>
+      <c r="E74" s="93"/>
       <c r="F74" s="44">
         <v>7</v>
       </c>
@@ -4146,14 +4155,14 @@
       <c r="I74" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="J74" s="108"/>
+      <c r="J74" s="110"/>
     </row>
     <row r="75" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="90"/>
-      <c r="B75" s="82"/>
-      <c r="C75" s="84"/>
-      <c r="D75" s="86"/>
-      <c r="E75" s="88"/>
+      <c r="A75" s="86"/>
+      <c r="B75" s="96"/>
+      <c r="C75" s="88"/>
+      <c r="D75" s="91"/>
+      <c r="E75" s="93"/>
       <c r="F75" s="44">
         <v>8</v>
       </c>
@@ -4164,54 +4173,54 @@
       <c r="I75" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="J75" s="108"/>
+      <c r="J75" s="110"/>
     </row>
     <row r="76" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="90"/>
-      <c r="B76" s="82"/>
-      <c r="C76" s="84"/>
-      <c r="D76" s="86"/>
-      <c r="E76" s="88"/>
+      <c r="A76" s="86"/>
+      <c r="B76" s="96"/>
+      <c r="C76" s="88"/>
+      <c r="D76" s="91"/>
+      <c r="E76" s="93"/>
       <c r="F76" s="44">
         <v>9</v>
       </c>
       <c r="G76" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H76" s="40"/>
       <c r="I76" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="J76" s="111"/>
+    </row>
+    <row r="77" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="107" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" s="107"/>
+      <c r="C77" s="107"/>
+      <c r="D77" s="107"/>
+      <c r="E77" s="107"/>
+      <c r="F77" s="107"/>
+      <c r="G77" s="107"/>
+      <c r="H77" s="107"/>
+      <c r="I77" s="107"/>
+      <c r="J77" s="48"/>
+    </row>
+    <row r="78" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="85">
+        <v>21</v>
+      </c>
+      <c r="B78" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="J76" s="109"/>
-    </row>
-    <row r="77" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="100" t="s">
-        <v>83</v>
-      </c>
-      <c r="B77" s="100"/>
-      <c r="C77" s="100"/>
-      <c r="D77" s="100"/>
-      <c r="E77" s="100"/>
-      <c r="F77" s="100"/>
-      <c r="G77" s="100"/>
-      <c r="H77" s="100"/>
-      <c r="I77" s="100"/>
-      <c r="J77" s="110"/>
-    </row>
-    <row r="78" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="89">
-        <v>21</v>
-      </c>
-      <c r="B78" s="81" t="s">
-        <v>156</v>
-      </c>
-      <c r="C78" s="83" t="s">
+      <c r="C78" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="D78" s="85" t="s">
+      <c r="D78" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="E78" s="85"/>
+      <c r="E78" s="90"/>
       <c r="F78" s="44">
         <v>1</v>
       </c>
@@ -4222,16 +4231,16 @@
       <c r="I78" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J78" s="107" t="s">
-        <v>185</v>
+      <c r="J78" s="109" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="90"/>
-      <c r="B79" s="82"/>
-      <c r="C79" s="84"/>
-      <c r="D79" s="86"/>
-      <c r="E79" s="86"/>
+      <c r="A79" s="86"/>
+      <c r="B79" s="96"/>
+      <c r="C79" s="88"/>
+      <c r="D79" s="91"/>
+      <c r="E79" s="91"/>
       <c r="F79" s="44">
         <v>2</v>
       </c>
@@ -4242,14 +4251,14 @@
       <c r="I79" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J79" s="108"/>
+      <c r="J79" s="110"/>
     </row>
     <row r="80" spans="1:10" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="90"/>
-      <c r="B80" s="82"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="86"/>
-      <c r="E80" s="86"/>
+      <c r="A80" s="86"/>
+      <c r="B80" s="96"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="91"/>
+      <c r="E80" s="91"/>
       <c r="F80" s="44">
         <v>3</v>
       </c>
@@ -4260,22 +4269,22 @@
       <c r="I80" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="J80" s="109"/>
+      <c r="J80" s="111"/>
     </row>
     <row r="81" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="89">
+      <c r="A81" s="85">
         <v>21</v>
       </c>
-      <c r="B81" s="81" t="s">
+      <c r="B81" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="C81" s="83" t="s">
+      <c r="C81" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="D81" s="85" t="s">
+      <c r="D81" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="E81" s="85"/>
+      <c r="E81" s="90"/>
       <c r="F81" s="44">
         <v>1</v>
       </c>
@@ -4286,14 +4295,16 @@
       <c r="I81" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J81" s="107"/>
+      <c r="J81" s="109" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="82" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="90"/>
-      <c r="B82" s="82"/>
-      <c r="C82" s="84"/>
-      <c r="D82" s="86"/>
-      <c r="E82" s="86"/>
+      <c r="A82" s="86"/>
+      <c r="B82" s="96"/>
+      <c r="C82" s="88"/>
+      <c r="D82" s="91"/>
+      <c r="E82" s="91"/>
       <c r="F82" s="44">
         <v>2</v>
       </c>
@@ -4304,14 +4315,14 @@
       <c r="I82" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J82" s="108"/>
+      <c r="J82" s="110"/>
     </row>
     <row r="83" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="90"/>
-      <c r="B83" s="82"/>
-      <c r="C83" s="84"/>
-      <c r="D83" s="86"/>
-      <c r="E83" s="86"/>
+      <c r="A83" s="86"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="88"/>
+      <c r="D83" s="91"/>
+      <c r="E83" s="91"/>
       <c r="F83" s="44">
         <v>3</v>
       </c>
@@ -4322,14 +4333,14 @@
       <c r="I83" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="J83" s="108"/>
+      <c r="J83" s="110"/>
     </row>
     <row r="84" spans="1:10" s="43" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="90"/>
-      <c r="B84" s="82"/>
-      <c r="C84" s="84"/>
-      <c r="D84" s="86"/>
-      <c r="E84" s="86"/>
+      <c r="A84" s="86"/>
+      <c r="B84" s="96"/>
+      <c r="C84" s="88"/>
+      <c r="D84" s="91"/>
+      <c r="E84" s="91"/>
       <c r="F84" s="44">
         <v>4</v>
       </c>
@@ -4340,22 +4351,22 @@
       <c r="I84" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="J84" s="109"/>
+      <c r="J84" s="111"/>
     </row>
     <row r="85" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="89">
+      <c r="A85" s="85">
         <v>21</v>
       </c>
-      <c r="B85" s="81" t="s">
+      <c r="B85" s="100" t="s">
         <v>134</v>
       </c>
-      <c r="C85" s="83" t="s">
+      <c r="C85" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="D85" s="85" t="s">
-        <v>189</v>
-      </c>
-      <c r="E85" s="85"/>
+      <c r="D85" s="90" t="s">
+        <v>188</v>
+      </c>
+      <c r="E85" s="90"/>
       <c r="F85" s="44">
         <v>1</v>
       </c>
@@ -4366,16 +4377,16 @@
       <c r="I85" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J85" s="107" t="s">
-        <v>185</v>
+      <c r="J85" s="109" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="90"/>
-      <c r="B86" s="82"/>
-      <c r="C86" s="84"/>
-      <c r="D86" s="86"/>
-      <c r="E86" s="86"/>
+      <c r="A86" s="86"/>
+      <c r="B86" s="96"/>
+      <c r="C86" s="88"/>
+      <c r="D86" s="91"/>
+      <c r="E86" s="91"/>
       <c r="F86" s="44">
         <v>2</v>
       </c>
@@ -4386,14 +4397,14 @@
       <c r="I86" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J86" s="108"/>
+      <c r="J86" s="110"/>
     </row>
     <row r="87" spans="1:10" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="90"/>
-      <c r="B87" s="82"/>
-      <c r="C87" s="84"/>
-      <c r="D87" s="86"/>
-      <c r="E87" s="86"/>
+      <c r="A87" s="86"/>
+      <c r="B87" s="96"/>
+      <c r="C87" s="88"/>
+      <c r="D87" s="91"/>
+      <c r="E87" s="91"/>
       <c r="F87" s="44">
         <v>3</v>
       </c>
@@ -4404,20 +4415,20 @@
       <c r="I87" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="J87" s="109"/>
+      <c r="J87" s="111"/>
     </row>
     <row r="88" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="91"/>
-      <c r="B88" s="93" t="s">
+      <c r="A88" s="94"/>
+      <c r="B88" s="95" t="s">
         <v>135</v>
       </c>
-      <c r="C88" s="91" t="s">
+      <c r="C88" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="D88" s="95" t="s">
-        <v>191</v>
-      </c>
-      <c r="E88" s="95"/>
+      <c r="D88" s="98" t="s">
+        <v>190</v>
+      </c>
+      <c r="E88" s="98"/>
       <c r="F88" s="44">
         <v>1</v>
       </c>
@@ -4428,16 +4439,16 @@
       <c r="I88" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J88" s="107" t="s">
-        <v>185</v>
+      <c r="J88" s="109" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="84"/>
-      <c r="B89" s="82"/>
-      <c r="C89" s="84"/>
-      <c r="D89" s="86"/>
-      <c r="E89" s="86"/>
+      <c r="A89" s="88"/>
+      <c r="B89" s="96"/>
+      <c r="C89" s="88"/>
+      <c r="D89" s="91"/>
+      <c r="E89" s="91"/>
       <c r="F89" s="44">
         <v>2</v>
       </c>
@@ -4448,14 +4459,14 @@
       <c r="I89" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J89" s="108"/>
+      <c r="J89" s="110"/>
     </row>
     <row r="90" spans="1:10" s="43" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="84"/>
-      <c r="B90" s="82"/>
-      <c r="C90" s="84"/>
-      <c r="D90" s="86"/>
-      <c r="E90" s="86"/>
+      <c r="A90" s="88"/>
+      <c r="B90" s="96"/>
+      <c r="C90" s="88"/>
+      <c r="D90" s="91"/>
+      <c r="E90" s="91"/>
       <c r="F90" s="44">
         <v>3</v>
       </c>
@@ -4466,14 +4477,14 @@
       <c r="I90" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="J90" s="108"/>
+      <c r="J90" s="110"/>
     </row>
     <row r="91" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="84"/>
-      <c r="B91" s="82"/>
-      <c r="C91" s="84"/>
-      <c r="D91" s="86"/>
-      <c r="E91" s="86"/>
+      <c r="A91" s="88"/>
+      <c r="B91" s="96"/>
+      <c r="C91" s="88"/>
+      <c r="D91" s="91"/>
+      <c r="E91" s="91"/>
       <c r="F91" s="44">
         <v>4</v>
       </c>
@@ -4484,14 +4495,14 @@
       <c r="I91" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="J91" s="108"/>
+      <c r="J91" s="110"/>
     </row>
     <row r="92" spans="1:10" s="43" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="98"/>
-      <c r="B92" s="99"/>
-      <c r="C92" s="98"/>
-      <c r="D92" s="97"/>
-      <c r="E92" s="97"/>
+      <c r="A92" s="102"/>
+      <c r="B92" s="103"/>
+      <c r="C92" s="102"/>
+      <c r="D92" s="101"/>
+      <c r="E92" s="101"/>
       <c r="F92" s="44">
         <v>5</v>
       </c>
@@ -4502,20 +4513,20 @@
       <c r="I92" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="J92" s="109"/>
+      <c r="J92" s="111"/>
     </row>
     <row r="93" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="91"/>
-      <c r="B93" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="C93" s="91" t="s">
+      <c r="A93" s="94"/>
+      <c r="B93" s="95" t="s">
+        <v>156</v>
+      </c>
+      <c r="C93" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="D93" s="95" t="s">
+      <c r="D93" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="E93" s="95" t="s">
+      <c r="E93" s="98" t="s">
         <v>59</v>
       </c>
       <c r="F93" s="44">
@@ -4528,16 +4539,16 @@
       <c r="I93" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J93" s="107" t="s">
-        <v>185</v>
+      <c r="J93" s="109" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="84"/>
-      <c r="B94" s="82"/>
-      <c r="C94" s="84"/>
-      <c r="D94" s="86"/>
-      <c r="E94" s="86"/>
+      <c r="A94" s="88"/>
+      <c r="B94" s="96"/>
+      <c r="C94" s="88"/>
+      <c r="D94" s="91"/>
+      <c r="E94" s="91"/>
       <c r="F94" s="44">
         <v>2</v>
       </c>
@@ -4548,14 +4559,14 @@
       <c r="I94" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J94" s="108"/>
+      <c r="J94" s="110"/>
     </row>
     <row r="95" spans="1:10" s="43" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="84"/>
-      <c r="B95" s="82"/>
-      <c r="C95" s="84"/>
-      <c r="D95" s="86"/>
-      <c r="E95" s="86"/>
+      <c r="A95" s="88"/>
+      <c r="B95" s="96"/>
+      <c r="C95" s="88"/>
+      <c r="D95" s="91"/>
+      <c r="E95" s="91"/>
       <c r="F95" s="44">
         <v>3</v>
       </c>
@@ -4566,14 +4577,14 @@
       <c r="I95" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="J95" s="108"/>
+      <c r="J95" s="110"/>
     </row>
     <row r="96" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="84"/>
-      <c r="B96" s="82"/>
-      <c r="C96" s="84"/>
-      <c r="D96" s="86"/>
-      <c r="E96" s="86"/>
+      <c r="A96" s="88"/>
+      <c r="B96" s="96"/>
+      <c r="C96" s="88"/>
+      <c r="D96" s="91"/>
+      <c r="E96" s="91"/>
       <c r="F96" s="44">
         <v>4</v>
       </c>
@@ -4584,14 +4595,14 @@
       <c r="I96" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="J96" s="108"/>
+      <c r="J96" s="110"/>
     </row>
     <row r="97" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="84"/>
-      <c r="B97" s="82"/>
-      <c r="C97" s="84"/>
-      <c r="D97" s="86"/>
-      <c r="E97" s="86"/>
+      <c r="A97" s="88"/>
+      <c r="B97" s="96"/>
+      <c r="C97" s="88"/>
+      <c r="D97" s="91"/>
+      <c r="E97" s="91"/>
       <c r="F97" s="44">
         <v>5</v>
       </c>
@@ -4602,14 +4613,14 @@
       <c r="I97" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="J97" s="108"/>
+      <c r="J97" s="110"/>
     </row>
     <row r="98" spans="1:10" s="43" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="92"/>
-      <c r="B98" s="94"/>
-      <c r="C98" s="92"/>
-      <c r="D98" s="96"/>
-      <c r="E98" s="96"/>
+      <c r="A98" s="89"/>
+      <c r="B98" s="97"/>
+      <c r="C98" s="89"/>
+      <c r="D98" s="99"/>
+      <c r="E98" s="99"/>
       <c r="F98" s="44">
         <v>6</v>
       </c>
@@ -4620,22 +4631,22 @@
       <c r="I98" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="J98" s="109"/>
+      <c r="J98" s="111"/>
     </row>
     <row r="99" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="89">
+      <c r="A99" s="85">
         <v>1</v>
       </c>
-      <c r="B99" s="81" t="s">
+      <c r="B99" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="C99" s="83" t="s">
+      <c r="C99" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="D99" s="85" t="s">
+      <c r="D99" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="E99" s="87" t="s">
+      <c r="E99" s="92" t="s">
         <v>75</v>
       </c>
       <c r="F99" s="44">
@@ -4648,16 +4659,16 @@
       <c r="I99" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J99" s="107" t="s">
-        <v>185</v>
+      <c r="J99" s="109" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="90"/>
-      <c r="B100" s="82"/>
-      <c r="C100" s="84"/>
-      <c r="D100" s="86"/>
-      <c r="E100" s="88"/>
+      <c r="A100" s="86"/>
+      <c r="B100" s="96"/>
+      <c r="C100" s="88"/>
+      <c r="D100" s="91"/>
+      <c r="E100" s="93"/>
       <c r="F100" s="44">
         <v>2</v>
       </c>
@@ -4668,14 +4679,14 @@
       <c r="I100" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J100" s="108"/>
+      <c r="J100" s="110"/>
     </row>
     <row r="101" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="90"/>
-      <c r="B101" s="82"/>
-      <c r="C101" s="84"/>
-      <c r="D101" s="86"/>
-      <c r="E101" s="88"/>
+      <c r="A101" s="86"/>
+      <c r="B101" s="96"/>
+      <c r="C101" s="88"/>
+      <c r="D101" s="91"/>
+      <c r="E101" s="93"/>
       <c r="F101" s="44">
         <v>3</v>
       </c>
@@ -4686,14 +4697,14 @@
       <c r="I101" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="J101" s="108"/>
+      <c r="J101" s="110"/>
     </row>
     <row r="102" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="90"/>
-      <c r="B102" s="82"/>
-      <c r="C102" s="84"/>
-      <c r="D102" s="86"/>
-      <c r="E102" s="88"/>
+      <c r="A102" s="86"/>
+      <c r="B102" s="96"/>
+      <c r="C102" s="88"/>
+      <c r="D102" s="91"/>
+      <c r="E102" s="93"/>
       <c r="F102" s="44">
         <v>4</v>
       </c>
@@ -4704,14 +4715,14 @@
       <c r="I102" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="J102" s="108"/>
+      <c r="J102" s="110"/>
     </row>
     <row r="103" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="90"/>
-      <c r="B103" s="82"/>
-      <c r="C103" s="84"/>
-      <c r="D103" s="86"/>
-      <c r="E103" s="88"/>
+      <c r="A103" s="86"/>
+      <c r="B103" s="96"/>
+      <c r="C103" s="88"/>
+      <c r="D103" s="91"/>
+      <c r="E103" s="93"/>
       <c r="F103" s="44">
         <v>5</v>
       </c>
@@ -4722,14 +4733,14 @@
         <v>91</v>
       </c>
       <c r="I103" s="40"/>
-      <c r="J103" s="108"/>
+      <c r="J103" s="110"/>
     </row>
     <row r="104" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="90"/>
-      <c r="B104" s="82"/>
-      <c r="C104" s="84"/>
-      <c r="D104" s="86"/>
-      <c r="E104" s="88"/>
+      <c r="A104" s="86"/>
+      <c r="B104" s="96"/>
+      <c r="C104" s="88"/>
+      <c r="D104" s="91"/>
+      <c r="E104" s="93"/>
       <c r="F104" s="44">
         <v>6</v>
       </c>
@@ -4740,14 +4751,14 @@
       <c r="I104" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J104" s="108"/>
+      <c r="J104" s="110"/>
     </row>
     <row r="105" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="90"/>
-      <c r="B105" s="82"/>
-      <c r="C105" s="84"/>
-      <c r="D105" s="86"/>
-      <c r="E105" s="88"/>
+      <c r="A105" s="86"/>
+      <c r="B105" s="96"/>
+      <c r="C105" s="88"/>
+      <c r="D105" s="91"/>
+      <c r="E105" s="93"/>
       <c r="F105" s="44">
         <v>7</v>
       </c>
@@ -4760,14 +4771,14 @@
       <c r="I105" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="J105" s="108"/>
+      <c r="J105" s="110"/>
     </row>
     <row r="106" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="90"/>
-      <c r="B106" s="82"/>
-      <c r="C106" s="84"/>
-      <c r="D106" s="86"/>
-      <c r="E106" s="88"/>
+      <c r="A106" s="86"/>
+      <c r="B106" s="96"/>
+      <c r="C106" s="88"/>
+      <c r="D106" s="91"/>
+      <c r="E106" s="93"/>
       <c r="F106" s="44">
         <v>8</v>
       </c>
@@ -4780,14 +4791,14 @@
       <c r="I106" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="J106" s="108"/>
+      <c r="J106" s="110"/>
     </row>
     <row r="107" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="90"/>
-      <c r="B107" s="82"/>
-      <c r="C107" s="84"/>
-      <c r="D107" s="86"/>
-      <c r="E107" s="88"/>
+      <c r="A107" s="86"/>
+      <c r="B107" s="96"/>
+      <c r="C107" s="88"/>
+      <c r="D107" s="91"/>
+      <c r="E107" s="93"/>
       <c r="F107" s="44">
         <v>9</v>
       </c>
@@ -4798,22 +4809,22 @@
       <c r="I107" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="J107" s="109"/>
+      <c r="J107" s="111"/>
     </row>
     <row r="108" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="89">
+      <c r="A108" s="85">
         <v>1</v>
       </c>
-      <c r="B108" s="81" t="s">
+      <c r="B108" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="83" t="s">
+      <c r="C108" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="D108" s="85" t="s">
+      <c r="D108" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="E108" s="87" t="s">
+      <c r="E108" s="92" t="s">
         <v>75</v>
       </c>
       <c r="F108" s="44">
@@ -4826,16 +4837,16 @@
       <c r="I108" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J108" s="107" t="s">
-        <v>185</v>
+      <c r="J108" s="109" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="109" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="90"/>
-      <c r="B109" s="82"/>
-      <c r="C109" s="84"/>
-      <c r="D109" s="86"/>
-      <c r="E109" s="88"/>
+      <c r="A109" s="86"/>
+      <c r="B109" s="96"/>
+      <c r="C109" s="88"/>
+      <c r="D109" s="91"/>
+      <c r="E109" s="93"/>
       <c r="F109" s="44">
         <v>2</v>
       </c>
@@ -4846,14 +4857,14 @@
       <c r="I109" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J109" s="108"/>
+      <c r="J109" s="110"/>
     </row>
     <row r="110" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="90"/>
-      <c r="B110" s="82"/>
-      <c r="C110" s="84"/>
-      <c r="D110" s="86"/>
-      <c r="E110" s="88"/>
+      <c r="A110" s="86"/>
+      <c r="B110" s="96"/>
+      <c r="C110" s="88"/>
+      <c r="D110" s="91"/>
+      <c r="E110" s="93"/>
       <c r="F110" s="44">
         <v>3</v>
       </c>
@@ -4864,14 +4875,14 @@
       <c r="I110" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="J110" s="108"/>
+      <c r="J110" s="110"/>
     </row>
     <row r="111" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="90"/>
-      <c r="B111" s="82"/>
-      <c r="C111" s="84"/>
-      <c r="D111" s="86"/>
-      <c r="E111" s="88"/>
+      <c r="A111" s="86"/>
+      <c r="B111" s="96"/>
+      <c r="C111" s="88"/>
+      <c r="D111" s="91"/>
+      <c r="E111" s="93"/>
       <c r="F111" s="44">
         <v>4</v>
       </c>
@@ -4882,14 +4893,14 @@
       <c r="I111" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="J111" s="108"/>
+      <c r="J111" s="110"/>
     </row>
     <row r="112" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="90"/>
-      <c r="B112" s="82"/>
-      <c r="C112" s="84"/>
-      <c r="D112" s="86"/>
-      <c r="E112" s="88"/>
+      <c r="A112" s="86"/>
+      <c r="B112" s="96"/>
+      <c r="C112" s="88"/>
+      <c r="D112" s="91"/>
+      <c r="E112" s="93"/>
       <c r="F112" s="44">
         <v>5</v>
       </c>
@@ -4900,14 +4911,14 @@
         <v>91</v>
       </c>
       <c r="I112" s="40"/>
-      <c r="J112" s="108"/>
+      <c r="J112" s="110"/>
     </row>
     <row r="113" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="90"/>
-      <c r="B113" s="82"/>
-      <c r="C113" s="84"/>
-      <c r="D113" s="86"/>
-      <c r="E113" s="88"/>
+      <c r="A113" s="86"/>
+      <c r="B113" s="96"/>
+      <c r="C113" s="88"/>
+      <c r="D113" s="91"/>
+      <c r="E113" s="93"/>
       <c r="F113" s="44">
         <v>6</v>
       </c>
@@ -4918,14 +4929,14 @@
       <c r="I113" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J113" s="108"/>
+      <c r="J113" s="110"/>
     </row>
     <row r="114" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="90"/>
-      <c r="B114" s="82"/>
-      <c r="C114" s="84"/>
-      <c r="D114" s="86"/>
-      <c r="E114" s="88"/>
+      <c r="A114" s="86"/>
+      <c r="B114" s="96"/>
+      <c r="C114" s="88"/>
+      <c r="D114" s="91"/>
+      <c r="E114" s="93"/>
       <c r="F114" s="44">
         <v>7</v>
       </c>
@@ -4938,14 +4949,14 @@
       <c r="I114" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="J114" s="108"/>
+      <c r="J114" s="110"/>
     </row>
     <row r="115" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="90"/>
-      <c r="B115" s="82"/>
-      <c r="C115" s="84"/>
-      <c r="D115" s="86"/>
-      <c r="E115" s="88"/>
+      <c r="A115" s="86"/>
+      <c r="B115" s="96"/>
+      <c r="C115" s="88"/>
+      <c r="D115" s="91"/>
+      <c r="E115" s="93"/>
       <c r="F115" s="44">
         <v>8</v>
       </c>
@@ -4956,14 +4967,14 @@
       <c r="I115" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="J115" s="108"/>
+      <c r="J115" s="110"/>
     </row>
     <row r="116" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="90"/>
-      <c r="B116" s="82"/>
-      <c r="C116" s="84"/>
-      <c r="D116" s="86"/>
-      <c r="E116" s="88"/>
+      <c r="A116" s="86"/>
+      <c r="B116" s="96"/>
+      <c r="C116" s="88"/>
+      <c r="D116" s="91"/>
+      <c r="E116" s="93"/>
       <c r="F116" s="44">
         <v>9</v>
       </c>
@@ -4974,22 +4985,22 @@
       <c r="I116" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="J116" s="109"/>
+      <c r="J116" s="111"/>
     </row>
     <row r="117" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="89">
+      <c r="A117" s="85">
         <v>1</v>
       </c>
-      <c r="B117" s="83" t="s">
+      <c r="B117" s="87" t="s">
         <v>149</v>
       </c>
-      <c r="C117" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="D117" s="85" t="s">
+      <c r="C117" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="D117" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="E117" s="87" t="s">
+      <c r="E117" s="92" t="s">
         <v>75</v>
       </c>
       <c r="F117" s="44">
@@ -5002,16 +5013,16 @@
       <c r="I117" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J117" s="107" t="s">
-        <v>185</v>
+      <c r="J117" s="109" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="118" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="90"/>
-      <c r="B118" s="84"/>
-      <c r="C118" s="84"/>
-      <c r="D118" s="86"/>
-      <c r="E118" s="88"/>
+      <c r="A118" s="86"/>
+      <c r="B118" s="88"/>
+      <c r="C118" s="88"/>
+      <c r="D118" s="91"/>
+      <c r="E118" s="93"/>
       <c r="F118" s="44">
         <v>2</v>
       </c>
@@ -5022,14 +5033,14 @@
       <c r="I118" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J118" s="108"/>
+      <c r="J118" s="110"/>
     </row>
     <row r="119" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="90"/>
-      <c r="B119" s="84"/>
-      <c r="C119" s="84"/>
-      <c r="D119" s="86"/>
-      <c r="E119" s="88"/>
+      <c r="A119" s="86"/>
+      <c r="B119" s="88"/>
+      <c r="C119" s="88"/>
+      <c r="D119" s="91"/>
+      <c r="E119" s="93"/>
       <c r="F119" s="44">
         <v>3</v>
       </c>
@@ -5040,14 +5051,14 @@
       <c r="I119" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="J119" s="108"/>
+      <c r="J119" s="110"/>
     </row>
     <row r="120" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="90"/>
-      <c r="B120" s="84"/>
-      <c r="C120" s="84"/>
-      <c r="D120" s="86"/>
-      <c r="E120" s="88"/>
+      <c r="A120" s="86"/>
+      <c r="B120" s="88"/>
+      <c r="C120" s="88"/>
+      <c r="D120" s="91"/>
+      <c r="E120" s="93"/>
       <c r="F120" s="44">
         <v>4</v>
       </c>
@@ -5058,32 +5069,32 @@
       <c r="I120" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="J120" s="108"/>
+      <c r="J120" s="110"/>
     </row>
     <row r="121" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="90"/>
-      <c r="B121" s="84"/>
-      <c r="C121" s="84"/>
-      <c r="D121" s="86"/>
-      <c r="E121" s="88"/>
+      <c r="A121" s="86"/>
+      <c r="B121" s="88"/>
+      <c r="C121" s="88"/>
+      <c r="D121" s="91"/>
+      <c r="E121" s="93"/>
       <c r="F121" s="44">
         <v>5</v>
       </c>
       <c r="G121" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="H121" s="111" t="s">
-        <v>188</v>
+      <c r="H121" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="I121" s="40"/>
-      <c r="J121" s="108"/>
+      <c r="J121" s="110"/>
     </row>
     <row r="122" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="90"/>
-      <c r="B122" s="84"/>
-      <c r="C122" s="84"/>
-      <c r="D122" s="86"/>
-      <c r="E122" s="88"/>
+      <c r="A122" s="86"/>
+      <c r="B122" s="88"/>
+      <c r="C122" s="88"/>
+      <c r="D122" s="91"/>
+      <c r="E122" s="93"/>
       <c r="F122" s="44">
         <v>6</v>
       </c>
@@ -5094,14 +5105,14 @@
       <c r="I122" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J122" s="108"/>
+      <c r="J122" s="110"/>
     </row>
     <row r="123" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="90"/>
-      <c r="B123" s="84"/>
-      <c r="C123" s="84"/>
-      <c r="D123" s="86"/>
-      <c r="E123" s="88"/>
+      <c r="A123" s="86"/>
+      <c r="B123" s="88"/>
+      <c r="C123" s="88"/>
+      <c r="D123" s="91"/>
+      <c r="E123" s="93"/>
       <c r="F123" s="44">
         <v>7</v>
       </c>
@@ -5114,14 +5125,14 @@
       <c r="I123" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="J123" s="108"/>
+      <c r="J123" s="110"/>
     </row>
     <row r="124" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="90"/>
-      <c r="B124" s="84"/>
-      <c r="C124" s="84"/>
-      <c r="D124" s="86"/>
-      <c r="E124" s="88"/>
+      <c r="A124" s="86"/>
+      <c r="B124" s="88"/>
+      <c r="C124" s="88"/>
+      <c r="D124" s="91"/>
+      <c r="E124" s="93"/>
       <c r="F124" s="44">
         <v>8</v>
       </c>
@@ -5132,14 +5143,14 @@
       <c r="I124" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="J124" s="108"/>
+      <c r="J124" s="110"/>
     </row>
     <row r="125" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="90"/>
-      <c r="B125" s="84"/>
-      <c r="C125" s="84"/>
-      <c r="D125" s="86"/>
-      <c r="E125" s="88"/>
+      <c r="A125" s="86"/>
+      <c r="B125" s="88"/>
+      <c r="C125" s="88"/>
+      <c r="D125" s="91"/>
+      <c r="E125" s="93"/>
       <c r="F125" s="44">
         <v>9</v>
       </c>
@@ -5148,22 +5159,22 @@
       </c>
       <c r="H125" s="40"/>
       <c r="I125" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="J125" s="111"/>
+    </row>
+    <row r="126" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="85">
+        <v>1</v>
+      </c>
+      <c r="B126" s="88"/>
+      <c r="C126" s="87" t="s">
+        <v>194</v>
+      </c>
+      <c r="D126" s="90" t="s">
         <v>186</v>
       </c>
-      <c r="J125" s="109"/>
-    </row>
-    <row r="126" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="89">
-        <v>1</v>
-      </c>
-      <c r="B126" s="84"/>
-      <c r="C126" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="D126" s="85" t="s">
-        <v>187</v>
-      </c>
-      <c r="E126" s="87" t="s">
+      <c r="E126" s="92" t="s">
         <v>75</v>
       </c>
       <c r="F126" s="44">
@@ -5176,16 +5187,16 @@
       <c r="I126" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J126" s="107" t="s">
-        <v>194</v>
+      <c r="J126" s="109" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="127" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="90"/>
-      <c r="B127" s="84"/>
-      <c r="C127" s="84"/>
-      <c r="D127" s="86"/>
-      <c r="E127" s="88"/>
+      <c r="A127" s="86"/>
+      <c r="B127" s="88"/>
+      <c r="C127" s="88"/>
+      <c r="D127" s="91"/>
+      <c r="E127" s="93"/>
       <c r="F127" s="44">
         <v>2</v>
       </c>
@@ -5196,14 +5207,14 @@
       <c r="I127" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J127" s="108"/>
+      <c r="J127" s="110"/>
     </row>
     <row r="128" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="90"/>
-      <c r="B128" s="84"/>
-      <c r="C128" s="84"/>
-      <c r="D128" s="86"/>
-      <c r="E128" s="88"/>
+      <c r="A128" s="86"/>
+      <c r="B128" s="88"/>
+      <c r="C128" s="88"/>
+      <c r="D128" s="91"/>
+      <c r="E128" s="93"/>
       <c r="F128" s="44">
         <v>3</v>
       </c>
@@ -5214,14 +5225,14 @@
       <c r="I128" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="J128" s="108"/>
+      <c r="J128" s="110"/>
     </row>
     <row r="129" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="90"/>
-      <c r="B129" s="84"/>
-      <c r="C129" s="84"/>
-      <c r="D129" s="86"/>
-      <c r="E129" s="88"/>
+      <c r="A129" s="86"/>
+      <c r="B129" s="88"/>
+      <c r="C129" s="88"/>
+      <c r="D129" s="91"/>
+      <c r="E129" s="93"/>
       <c r="F129" s="44">
         <v>4</v>
       </c>
@@ -5232,14 +5243,14 @@
       <c r="I129" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="J129" s="108"/>
+      <c r="J129" s="110"/>
     </row>
     <row r="130" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="90"/>
-      <c r="B130" s="84"/>
-      <c r="C130" s="84"/>
-      <c r="D130" s="86"/>
-      <c r="E130" s="88"/>
+      <c r="A130" s="86"/>
+      <c r="B130" s="88"/>
+      <c r="C130" s="88"/>
+      <c r="D130" s="91"/>
+      <c r="E130" s="93"/>
       <c r="F130" s="44">
         <v>5</v>
       </c>
@@ -5248,14 +5259,14 @@
       </c>
       <c r="H130" s="40"/>
       <c r="I130" s="40"/>
-      <c r="J130" s="108"/>
+      <c r="J130" s="110"/>
     </row>
     <row r="131" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="90"/>
-      <c r="B131" s="84"/>
-      <c r="C131" s="84"/>
-      <c r="D131" s="86"/>
-      <c r="E131" s="88"/>
+      <c r="A131" s="86"/>
+      <c r="B131" s="88"/>
+      <c r="C131" s="88"/>
+      <c r="D131" s="91"/>
+      <c r="E131" s="93"/>
       <c r="F131" s="44">
         <v>6</v>
       </c>
@@ -5266,14 +5277,14 @@
       <c r="I131" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J131" s="108"/>
+      <c r="J131" s="110"/>
     </row>
     <row r="132" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="90"/>
-      <c r="B132" s="84"/>
-      <c r="C132" s="84"/>
-      <c r="D132" s="86"/>
-      <c r="E132" s="88"/>
+      <c r="A132" s="86"/>
+      <c r="B132" s="88"/>
+      <c r="C132" s="88"/>
+      <c r="D132" s="91"/>
+      <c r="E132" s="93"/>
       <c r="F132" s="44">
         <v>7</v>
       </c>
@@ -5286,14 +5297,14 @@
       <c r="I132" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="J132" s="108"/>
+      <c r="J132" s="110"/>
     </row>
     <row r="133" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="90"/>
-      <c r="B133" s="84"/>
-      <c r="C133" s="84"/>
-      <c r="D133" s="86"/>
-      <c r="E133" s="88"/>
+      <c r="A133" s="86"/>
+      <c r="B133" s="88"/>
+      <c r="C133" s="88"/>
+      <c r="D133" s="91"/>
+      <c r="E133" s="93"/>
       <c r="F133" s="44">
         <v>8</v>
       </c>
@@ -5304,14 +5315,14 @@
       <c r="I133" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="J133" s="108"/>
+      <c r="J133" s="110"/>
     </row>
     <row r="134" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="90"/>
-      <c r="B134" s="98"/>
-      <c r="C134" s="84"/>
-      <c r="D134" s="86"/>
-      <c r="E134" s="88"/>
+      <c r="A134" s="86"/>
+      <c r="B134" s="102"/>
+      <c r="C134" s="88"/>
+      <c r="D134" s="91"/>
+      <c r="E134" s="93"/>
       <c r="F134" s="44">
         <v>9</v>
       </c>
@@ -5320,24 +5331,24 @@
       </c>
       <c r="H134" s="40"/>
       <c r="I134" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="J134" s="109"/>
+        <v>185</v>
+      </c>
+      <c r="J134" s="111"/>
     </row>
     <row r="135" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="89">
+      <c r="A135" s="85">
         <v>21</v>
       </c>
-      <c r="B135" s="93">
-        <v>0</v>
-      </c>
-      <c r="C135" s="91" t="s">
-        <v>150</v>
-      </c>
-      <c r="D135" s="95" t="s">
-        <v>192</v>
-      </c>
-      <c r="E135" s="95"/>
+      <c r="B135" s="95" t="s">
+        <v>175</v>
+      </c>
+      <c r="C135" s="94" t="s">
+        <v>195</v>
+      </c>
+      <c r="D135" s="98" t="s">
+        <v>191</v>
+      </c>
+      <c r="E135" s="98"/>
       <c r="F135" s="44">
         <v>1</v>
       </c>
@@ -5348,16 +5359,16 @@
       <c r="I135" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J135" s="107" t="s">
-        <v>185</v>
+      <c r="J135" s="109" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="136" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="90"/>
-      <c r="B136" s="82"/>
-      <c r="C136" s="84"/>
-      <c r="D136" s="86"/>
-      <c r="E136" s="86"/>
+      <c r="A136" s="86"/>
+      <c r="B136" s="96"/>
+      <c r="C136" s="88"/>
+      <c r="D136" s="91"/>
+      <c r="E136" s="91"/>
       <c r="F136" s="44">
         <v>2</v>
       </c>
@@ -5368,14 +5379,14 @@
       <c r="I136" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J136" s="108"/>
+      <c r="J136" s="110"/>
     </row>
     <row r="137" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="90"/>
-      <c r="B137" s="82"/>
-      <c r="C137" s="84"/>
-      <c r="D137" s="86"/>
-      <c r="E137" s="86"/>
+      <c r="A137" s="86"/>
+      <c r="B137" s="96"/>
+      <c r="C137" s="88"/>
+      <c r="D137" s="91"/>
+      <c r="E137" s="91"/>
       <c r="F137" s="44">
         <v>3</v>
       </c>
@@ -5386,14 +5397,14 @@
       <c r="I137" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="J137" s="108"/>
+      <c r="J137" s="110"/>
     </row>
     <row r="138" spans="1:10" s="43" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="90"/>
-      <c r="B138" s="99"/>
-      <c r="C138" s="98"/>
-      <c r="D138" s="97"/>
-      <c r="E138" s="97"/>
+      <c r="A138" s="86"/>
+      <c r="B138" s="103"/>
+      <c r="C138" s="102"/>
+      <c r="D138" s="101"/>
+      <c r="E138" s="101"/>
       <c r="F138" s="44">
         <v>4</v>
       </c>
@@ -5402,9 +5413,9 @@
       </c>
       <c r="H138" s="40"/>
       <c r="I138" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="J138" s="109"/>
+        <v>192</v>
+      </c>
+      <c r="J138" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="109">
@@ -5421,6 +5432,15 @@
     <mergeCell ref="J93:J98"/>
     <mergeCell ref="J99:J107"/>
     <mergeCell ref="J108:J116"/>
+    <mergeCell ref="B108:B116"/>
+    <mergeCell ref="C108:C116"/>
+    <mergeCell ref="D108:D116"/>
+    <mergeCell ref="E108:E116"/>
+    <mergeCell ref="A117:A125"/>
+    <mergeCell ref="C117:C125"/>
+    <mergeCell ref="D117:D125"/>
+    <mergeCell ref="E117:E125"/>
+    <mergeCell ref="A108:A116"/>
     <mergeCell ref="J50:J58"/>
     <mergeCell ref="J59:J67"/>
     <mergeCell ref="J68:J76"/>
@@ -5431,8 +5451,6 @@
     <mergeCell ref="J23:J31"/>
     <mergeCell ref="J32:J40"/>
     <mergeCell ref="J41:J49"/>
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="B68:B76"/>
     <mergeCell ref="C68:C76"/>
     <mergeCell ref="D68:D76"/>
     <mergeCell ref="E68:E76"/>
@@ -5441,6 +5459,20 @@
     <mergeCell ref="C135:C138"/>
     <mergeCell ref="D135:D138"/>
     <mergeCell ref="E135:E138"/>
+    <mergeCell ref="A99:A107"/>
+    <mergeCell ref="B99:B107"/>
+    <mergeCell ref="C99:C107"/>
+    <mergeCell ref="D99:D107"/>
+    <mergeCell ref="E99:E107"/>
+    <mergeCell ref="A77:I77"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C81:C84"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B5:B13"/>
@@ -5453,11 +5485,16 @@
     <mergeCell ref="C14:C22"/>
     <mergeCell ref="D14:D22"/>
     <mergeCell ref="E14:E22"/>
-    <mergeCell ref="A99:A107"/>
-    <mergeCell ref="B99:B107"/>
-    <mergeCell ref="C99:C107"/>
-    <mergeCell ref="D99:D107"/>
-    <mergeCell ref="E99:E107"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="D23:D31"/>
+    <mergeCell ref="E23:E31"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="D50:D58"/>
+    <mergeCell ref="E50:E58"/>
+    <mergeCell ref="B50:B58"/>
     <mergeCell ref="A32:A40"/>
     <mergeCell ref="C32:C40"/>
     <mergeCell ref="D32:D40"/>
@@ -5467,15 +5504,16 @@
     <mergeCell ref="C41:C49"/>
     <mergeCell ref="D41:D49"/>
     <mergeCell ref="E41:E49"/>
-    <mergeCell ref="A77:I77"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:D67"/>
+    <mergeCell ref="E59:E67"/>
+    <mergeCell ref="A93:A98"/>
+    <mergeCell ref="B93:B98"/>
+    <mergeCell ref="C93:C98"/>
+    <mergeCell ref="D93:D98"/>
+    <mergeCell ref="E93:E98"/>
     <mergeCell ref="D81:D84"/>
     <mergeCell ref="E81:E84"/>
     <mergeCell ref="A78:A80"/>
@@ -5488,35 +5526,8 @@
     <mergeCell ref="C88:C92"/>
     <mergeCell ref="B88:B92"/>
     <mergeCell ref="A88:A92"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="D23:D31"/>
-    <mergeCell ref="E23:E31"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="D50:D58"/>
-    <mergeCell ref="E50:E58"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="A59:A67"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:D67"/>
-    <mergeCell ref="E59:E67"/>
-    <mergeCell ref="A93:A98"/>
-    <mergeCell ref="B93:B98"/>
-    <mergeCell ref="C93:C98"/>
-    <mergeCell ref="D93:D98"/>
-    <mergeCell ref="E93:E98"/>
-    <mergeCell ref="B108:B116"/>
-    <mergeCell ref="C108:C116"/>
-    <mergeCell ref="D108:D116"/>
-    <mergeCell ref="E108:E116"/>
-    <mergeCell ref="A117:A125"/>
-    <mergeCell ref="C117:C125"/>
-    <mergeCell ref="D117:D125"/>
-    <mergeCell ref="E117:E125"/>
-    <mergeCell ref="A108:A116"/>
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="B68:B76"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
